--- a/$ESTC.xlsx
+++ b/$ESTC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68315F16-546F-42B6-B491-043C8CEE36FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030416E0-741D-4D80-87CF-0DA800655227}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C17CCCFF-BC06-47D8-B432-71950F7FA339}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{C17CCCFF-BC06-47D8-B432-71950F7FA339}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -909,7 +909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691FEFE0-031E-449B-9B3E-DEA7EAB8B130}">
   <dimension ref="B2:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -1174,11 +1174,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8FF81E-C7BC-429A-AF70-7B66A6FE5D82}">
   <dimension ref="A1:S88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1312,6 +1312,9 @@
         <f>+K4+K5</f>
         <v>347.42</v>
       </c>
+      <c r="L6" s="29">
+        <v>365</v>
+      </c>
     </row>
     <row r="7" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="28" t="s">
@@ -1801,7 +1804,7 @@
         <v>-0.68840032926327432</v>
       </c>
     </row>
-    <row r="34" spans="2:11" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
         <v>96</v>
       </c>
@@ -1810,17 +1813,21 @@
         <v>0.18269430439859335</v>
       </c>
     </row>
-    <row r="35" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="31" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="31">
+        <f>+L6/K6-1</f>
+        <v>5.0601577341546244E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B38" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="2:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="29" t="s">
         <v>6</v>
       </c>
@@ -1828,7 +1835,7 @@
         <v>594.87099999999998</v>
       </c>
     </row>
-    <row r="40" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
         <v>70</v>
       </c>
@@ -1836,7 +1843,7 @@
         <v>3.4630000000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="29" t="s">
         <v>71</v>
       </c>
@@ -1844,7 +1851,7 @@
         <v>552.45899999999995</v>
       </c>
     </row>
-    <row r="42" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
         <v>72</v>
       </c>
@@ -1852,7 +1859,7 @@
         <v>196.47399999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
         <v>73</v>
       </c>
@@ -1860,7 +1867,7 @@
         <v>76.265000000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>74</v>
       </c>
@@ -1868,7 +1875,7 @@
         <v>42.643000000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>75</v>
       </c>
@@ -1877,7 +1884,7 @@
         <v>1466.175</v>
       </c>
     </row>
-    <row r="46" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
         <v>76</v>
       </c>
@@ -1885,7 +1892,7 @@
         <v>4.9530000000000003</v>
       </c>
     </row>
-    <row r="47" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
         <v>77</v>
       </c>
@@ -1893,7 +1900,7 @@
         <v>319.41699999999997</v>
       </c>
     </row>
-    <row r="48" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
         <v>78</v>
       </c>

--- a/$ESTC.xlsx
+++ b/$ESTC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030416E0-741D-4D80-87CF-0DA800655227}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2C98DE-BC60-4062-818A-89AF5B76EB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{C17CCCFF-BC06-47D8-B432-71950F7FA339}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C17CCCFF-BC06-47D8-B432-71950F7FA339}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
   <si>
     <t>$ESTC</t>
   </si>
@@ -320,6 +329,12 @@
   </si>
   <si>
     <t>Revenue Q/Q</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
@@ -327,7 +342,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0\x"/>
+    <numFmt numFmtId="164" formatCode="0.0\x"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -505,26 +520,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -539,22 +543,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -579,17 +571,38 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="15" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -934,216 +947,228 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="1">
         <v>93.15</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="3">
         <f>+'Financial Model'!K24</f>
         <v>102.284435</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="3">
         <f>C6*C7</f>
         <v>9527.7951202500008</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="3">
         <f>+'Financial Model'!K73</f>
         <v>1147.33</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="3">
         <f>+'Financial Model'!K74</f>
         <v>568.88699999999994</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="3">
         <f>C9-C10</f>
         <v>578.44299999999998</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="7">
         <f>C8-C11</f>
         <v>8949.3521202500015</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="16"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="16"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="16"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="23"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="19"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="23"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="19"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="37">
+      <c r="D29" s="26">
         <v>45524</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="33"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C34" s="34">
         <f>+C6/'Financial Model'!K71</f>
         <v>12.550196094773931</v>
       </c>
-      <c r="D34" s="34"/>
+      <c r="D34" s="35"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="28"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="28"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="23"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="28"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
@@ -1152,18 +1177,6 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1172,13 +1185,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8FF81E-C7BC-429A-AF70-7B66A6FE5D82}">
-  <dimension ref="A1:S88"/>
+  <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L35" sqref="L35"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1188,157 +1201,230 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="25" t="s">
+    <row r="1" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="M1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="Q1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="R1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="S1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="T1" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="G2" s="27">
+    <row r="2" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="E2" s="18">
+        <v>44957</v>
+      </c>
+      <c r="G2" s="18">
         <v>45138</v>
       </c>
-      <c r="K2" s="27">
+      <c r="H2" s="18">
+        <v>45230</v>
+      </c>
+      <c r="I2" s="18">
+        <v>45322</v>
+      </c>
+      <c r="K2" s="18">
         <v>45504</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
-      <c r="K3" s="36">
+      <c r="L2" s="18">
+        <v>45596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="I3" s="25">
+        <v>45351</v>
+      </c>
+      <c r="K3" s="25">
         <v>45524</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="28" t="s">
+      <c r="L3" s="25">
+        <v>45617</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="19" t="s">
         <v>34</v>
+      </c>
+      <c r="E4" s="3">
+        <v>255.613</v>
       </c>
       <c r="G4" s="3">
         <v>270.24700000000001</v>
       </c>
+      <c r="H4" s="3">
+        <v>287.74299999999999</v>
+      </c>
+      <c r="I4" s="3">
+        <v>307.63200000000001</v>
+      </c>
       <c r="K4" s="3">
         <v>323.774</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="28" t="s">
+      <c r="L4" s="3">
+        <v>340.80700000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="19" t="s">
         <v>35</v>
+      </c>
+      <c r="E5" s="3">
+        <v>18.952999999999999</v>
       </c>
       <c r="G5" s="3">
         <v>23.506</v>
       </c>
+      <c r="H5" s="3">
+        <v>22.869</v>
+      </c>
+      <c r="I5" s="3">
+        <v>20.324999999999999</v>
+      </c>
       <c r="K5" s="3">
         <v>23.646000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="29" t="s">
+      <c r="L5" s="3">
+        <v>24.553999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="20">
         <f t="shared" ref="C6:J6" si="0">+C4+C5</f>
         <v>0</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="29">
+        <v>274.56599999999997</v>
+      </c>
+      <c r="F6" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="20">
         <f t="shared" si="0"/>
         <v>293.75300000000004</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="29">
+        <v>310.61199999999997</v>
+      </c>
+      <c r="I6" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="29">
+        <v>327.95699999999999</v>
+      </c>
+      <c r="J6" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="20">
         <f>+K4+K5</f>
         <v>347.42</v>
       </c>
-      <c r="L6" s="29">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="28" t="s">
+      <c r="L6" s="20">
+        <f>+L4+L5</f>
+        <v>365.36099999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="19" t="s">
         <v>59</v>
+      </c>
+      <c r="E7" s="3">
+        <v>56.146000000000001</v>
       </c>
       <c r="G7" s="3">
         <v>57.265999999999998</v>
       </c>
+      <c r="H7" s="3">
+        <v>59.996000000000002</v>
+      </c>
+      <c r="I7" s="3">
+        <v>63.975999999999999</v>
+      </c>
       <c r="K7" s="3">
         <v>68.346999999999994</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="28" t="s">
+      <c r="L7" s="3">
+        <v>69.941000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="19" t="s">
         <v>58</v>
+      </c>
+      <c r="E8" s="3">
+        <v>19.062000000000001</v>
       </c>
       <c r="G8" s="3">
         <v>20.210999999999999</v>
       </c>
+      <c r="H8" s="3">
+        <v>20.093</v>
+      </c>
+      <c r="I8" s="3">
+        <v>20.666</v>
+      </c>
       <c r="K8" s="3">
         <v>23.41</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>23.238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>37</v>
       </c>
@@ -1352,7 +1438,7 @@
       </c>
       <c r="E9" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>75.207999999999998</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="1"/>
@@ -1364,11 +1450,11 @@
       </c>
       <c r="H9" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>80.088999999999999</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>84.641999999999996</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="1"/>
@@ -1378,54 +1464,62 @@
         <f>+K7+K8</f>
         <v>91.756999999999991</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="29" t="s">
+      <c r="L9" s="3">
+        <f>+L7+L8</f>
+        <v>93.179000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="20">
         <f t="shared" ref="C10:J10" si="2">+C6-C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="29">
+        <v>199.35799999999998</v>
+      </c>
+      <c r="F10" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="20">
         <f t="shared" si="2"/>
         <v>216.27600000000004</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="29">
+        <v>230.52299999999997</v>
+      </c>
+      <c r="I10" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="29">
+        <v>243.315</v>
+      </c>
+      <c r="J10" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="20">
         <f>+K6-K9</f>
         <v>255.66300000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="28" t="s">
+      <c r="L10" s="20">
+        <f>+L6-L9</f>
+        <v>272.18200000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="19" t="s">
         <v>60</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" ref="C11:K11" si="3">+C4-C7</f>
+        <f t="shared" ref="C11:J11" si="3">+C4-C7</f>
         <v>0</v>
       </c>
       <c r="D11" s="3">
@@ -1434,7 +1528,7 @@
       </c>
       <c r="E11" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>199.46699999999998</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="3"/>
@@ -1446,11 +1540,11 @@
       </c>
       <c r="H11" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>227.74699999999999</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>243.65600000000001</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="3"/>
@@ -1460,13 +1554,17 @@
         <f>+K4-K7</f>
         <v>255.42700000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="28" t="s">
+      <c r="L11" s="3">
+        <f>+L4-L7</f>
+        <v>270.86599999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="19" t="s">
         <v>61</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" ref="C12:K12" si="4">+C5-C8</f>
+        <f t="shared" ref="C12:J12" si="4">+C5-C8</f>
         <v>0</v>
       </c>
       <c r="D12" s="3">
@@ -1475,7 +1573,7 @@
       </c>
       <c r="E12" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-0.10900000000000176</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="4"/>
@@ -1487,11 +1585,11 @@
       </c>
       <c r="H12" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.7759999999999998</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-0.34100000000000108</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="4"/>
@@ -1501,115 +1599,195 @@
         <f>+K5-K8</f>
         <v>0.23600000000000065</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L12" s="3">
+        <f>+L5-L8</f>
+        <v>1.3159999999999989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="E13" s="3">
+        <v>77.471999999999994</v>
+      </c>
       <c r="G13" s="3">
         <v>80.69</v>
       </c>
+      <c r="H13" s="3">
+        <v>80.108000000000004</v>
+      </c>
+      <c r="I13" s="3">
+        <v>87.201999999999998</v>
+      </c>
       <c r="K13" s="3">
         <v>89.331999999999994</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>88.162999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="E14" s="3">
+        <v>126.717</v>
+      </c>
       <c r="G14" s="3">
         <v>133.16900000000001</v>
       </c>
+      <c r="H14" s="3">
+        <v>133.22999999999999</v>
+      </c>
+      <c r="I14" s="3">
+        <v>141.62100000000001</v>
+      </c>
       <c r="K14" s="3">
         <v>157.357</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>144.274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="E15" s="3">
+        <v>34.710999999999999</v>
+      </c>
       <c r="G15" s="3">
         <v>37.939</v>
       </c>
+      <c r="H15" s="3">
+        <v>38.695</v>
+      </c>
+      <c r="I15" s="3">
+        <v>40.896000000000001</v>
+      </c>
       <c r="K15" s="3">
         <v>42.673000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>44.085000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="E16" s="3">
+        <v>29.805</v>
+      </c>
       <c r="G16" s="3">
         <v>0.72499999999999998</v>
       </c>
+      <c r="H16" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
       <c r="K16" s="3">
         <v>0.13900000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="29" t="s">
+      <c r="L16" s="3">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="20">
         <f t="shared" ref="C17:J17" si="5">+C10-SUM(C13:C16)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="20">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="29">
+        <v>-69.347000000000008</v>
+      </c>
+      <c r="F17" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="20">
         <f t="shared" si="5"/>
         <v>-36.246999999999957</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="20">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="29">
+        <v>-21.539000000000016</v>
+      </c>
+      <c r="I17" s="20">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="29">
+        <v>-26.403999999999996</v>
+      </c>
+      <c r="J17" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="20">
         <f>+K10-SUM(K13:K16)</f>
         <v>-33.837999999999965</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L17" s="20">
+        <f>+L10-SUM(L13:L16)</f>
+        <v>-4.4259999999999877</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="E18" s="3">
+        <v>6.2649999999999997</v>
+      </c>
       <c r="G18" s="3">
         <v>6.306</v>
       </c>
+      <c r="H18" s="3">
+        <v>6.3490000000000002</v>
+      </c>
+      <c r="I18" s="3">
+        <v>6.3680000000000003</v>
+      </c>
       <c r="K18" s="3">
         <v>6.5259999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>6.4619999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E19" s="3">
+        <v>5.46</v>
+      </c>
       <c r="G19" s="3">
         <v>7.3</v>
       </c>
+      <c r="H19" s="3">
+        <v>8.2390000000000008</v>
+      </c>
+      <c r="I19" s="3">
+        <v>8.5679999999999996</v>
+      </c>
       <c r="K19" s="3">
         <v>11.208</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="3">
+        <v>9.1059999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>45</v>
       </c>
@@ -1623,7 +1801,7 @@
       </c>
       <c r="E20" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-70.152000000000015</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="6"/>
@@ -1635,11 +1813,11 @@
       </c>
       <c r="H20" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-19.649000000000015</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-24.204000000000001</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" si="6"/>
@@ -1649,189 +1827,346 @@
         <f>+K17-K18+K19</f>
         <v>-29.155999999999963</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <f>+L17-L18+L19</f>
+        <v>-1.7819999999999876</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="E21" s="3">
+        <v>2.4220000000000002</v>
+      </c>
       <c r="G21" s="3">
         <v>13.255000000000001</v>
       </c>
+      <c r="I21" s="3">
+        <v>-200.328</v>
+      </c>
       <c r="K21" s="3">
         <v>20.071000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="29" t="s">
+      <c r="L21" s="3">
+        <v>23.667999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="20">
         <f t="shared" ref="C22:J22" si="7">+C20-C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="20">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="29">
+        <v>-72.574000000000012</v>
+      </c>
+      <c r="F22" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="20">
         <f t="shared" si="7"/>
         <v>-48.50799999999996</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="20">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="29">
+        <v>-19.649000000000015</v>
+      </c>
+      <c r="I22" s="20">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="29">
+        <v>176.124</v>
+      </c>
+      <c r="J22" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K22" s="29">
+      <c r="K22" s="20">
         <f>+K20-K21</f>
         <v>-49.226999999999961</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="30" t="s">
+      <c r="L22" s="20">
+        <f>+L20-L21</f>
+        <v>-25.449999999999989</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="30">
+      <c r="E23" s="21">
+        <f>+E22/E24</f>
+        <v>-0.75556970298127513</v>
+      </c>
+      <c r="G23" s="21">
         <f>+G22/G24</f>
         <v>-0.49527246463875757</v>
       </c>
-      <c r="K23" s="30">
+      <c r="H23" s="21">
+        <f>+H22/H24</f>
+        <v>-0.19832770250816376</v>
+      </c>
+      <c r="I23" s="21">
+        <f>+I22/I24</f>
+        <v>1.7562841349907246</v>
+      </c>
+      <c r="K23" s="21">
         <f>+K22/K24</f>
         <v>-0.48127557237814295</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L23" s="21">
+        <f>+L22/L24</f>
+        <v>-0.24651598808741745</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="E24" s="3">
+        <v>96.052025</v>
+      </c>
       <c r="G24" s="3">
         <v>97.942048999999997</v>
       </c>
+      <c r="H24" s="3">
+        <v>99.073401000000004</v>
+      </c>
+      <c r="I24" s="3">
+        <v>100.282179</v>
+      </c>
       <c r="K24" s="3">
         <v>102.284435</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="31" t="s">
+      <c r="L24" s="3">
+        <v>103.23874000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="G26" s="31">
+      <c r="E26" s="22">
+        <f>+E11/E4</f>
+        <v>0.78034763490119818</v>
+      </c>
+      <c r="G26" s="22">
         <f>+G11/G4</f>
         <v>0.78809755519950275</v>
       </c>
-      <c r="K26" s="31">
+      <c r="H26" s="22">
+        <f t="shared" ref="H26:I27" si="8">+H11/H4</f>
+        <v>0.79149449334996846</v>
+      </c>
+      <c r="I26" s="22">
+        <f t="shared" si="8"/>
+        <v>0.79203723929890257</v>
+      </c>
+      <c r="K26" s="22">
         <f>+K11/K4</f>
         <v>0.78890522401428165</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="31" t="s">
+      <c r="L26" s="22">
+        <f t="shared" ref="L26:L27" si="9">+L11/L4</f>
+        <v>0.79477827626779962</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="31">
+      <c r="E27" s="22">
+        <f>+E12/E5</f>
+        <v>-5.75106843243823E-3</v>
+      </c>
+      <c r="G27" s="22">
         <f>+G12/G5</f>
         <v>0.14017697609121083</v>
       </c>
-      <c r="K27" s="31">
+      <c r="H27" s="22">
+        <f t="shared" si="8"/>
+        <v>0.12138703047793956</v>
+      </c>
+      <c r="I27" s="22">
+        <f t="shared" si="8"/>
+        <v>-1.677736777367779E-2</v>
+      </c>
+      <c r="K27" s="22">
         <f>+K12/K5</f>
         <v>9.9805463926245733E-3</v>
       </c>
-    </row>
-    <row r="29" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="31" t="s">
+      <c r="L27" s="22">
+        <f t="shared" si="9"/>
+        <v>5.3596155412560034E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="31">
+      <c r="E29" s="22">
+        <f>+E10/E6</f>
+        <v>0.72608407450303381</v>
+      </c>
+      <c r="G29" s="22">
         <f>+G10/G6</f>
         <v>0.73625120424302049</v>
       </c>
-      <c r="K29" s="31">
+      <c r="H29" s="22">
+        <f t="shared" ref="H29:I29" si="10">+H10/H6</f>
+        <v>0.7421574182581484</v>
+      </c>
+      <c r="I29" s="22">
+        <f t="shared" si="10"/>
+        <v>0.74191128715044963</v>
+      </c>
+      <c r="K29" s="22">
         <f>+K10/K6</f>
         <v>0.73589027689827868</v>
       </c>
-    </row>
-    <row r="30" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="31" t="s">
+      <c r="L29" s="22">
+        <f t="shared" ref="L29" si="11">+L10/L6</f>
+        <v>0.74496730630800778</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="G30" s="31">
+      <c r="E30" s="22">
+        <f>+E17/E6</f>
+        <v>-0.2525695096989431</v>
+      </c>
+      <c r="G30" s="22">
         <f>+G17/G6</f>
         <v>-0.12339278237158413</v>
       </c>
-      <c r="K30" s="31">
+      <c r="H30" s="22">
+        <f t="shared" ref="H30:I30" si="12">+H17/H6</f>
+        <v>-6.9343747182980753E-2</v>
+      </c>
+      <c r="I30" s="22">
+        <f t="shared" si="12"/>
+        <v>-8.0510554737358853E-2</v>
+      </c>
+      <c r="K30" s="22">
         <f>+K17/K6</f>
         <v>-9.7397962120775908E-2</v>
       </c>
-    </row>
-    <row r="31" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="31" t="s">
+      <c r="L30" s="22">
+        <f t="shared" ref="L30" si="13">+L17/L6</f>
+        <v>-1.2114046107822093E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G31" s="31">
+      <c r="E31" s="22">
+        <f>+E22/E6</f>
+        <v>-0.26432260367270538</v>
+      </c>
+      <c r="G31" s="22">
         <f>+G22/G6</f>
         <v>-0.16513193056751746</v>
       </c>
-      <c r="K31" s="31">
+      <c r="H31" s="22">
+        <f t="shared" ref="H31:I31" si="14">+H22/H6</f>
+        <v>-6.3258985486716601E-2</v>
+      </c>
+      <c r="I31" s="22">
+        <f t="shared" si="14"/>
+        <v>0.53703381845790754</v>
+      </c>
+      <c r="K31" s="22">
         <f>+K22/K6</f>
         <v>-0.141693051637787</v>
       </c>
-    </row>
-    <row r="32" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="31" t="s">
+      <c r="L31" s="22">
+        <f t="shared" ref="L31" si="15">+L22/L6</f>
+        <v>-6.9657133629478757E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G32" s="31">
+      <c r="E32" s="22">
+        <f>+E21/E20</f>
+        <v>-3.4525031360474391E-2</v>
+      </c>
+      <c r="G32" s="22">
         <f>+G21/G20</f>
         <v>-0.37599636910333922</v>
       </c>
-      <c r="K32" s="31">
+      <c r="H32" s="22">
+        <f t="shared" ref="H32:I32" si="16">+H21/H20</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="22">
+        <f t="shared" si="16"/>
+        <v>8.2766484878532474</v>
+      </c>
+      <c r="K32" s="22">
         <f>+K21/K20</f>
         <v>-0.68840032926327432</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="35" t="s">
+      <c r="L32" s="22">
+        <f t="shared" ref="L32" si="17">+L21/L20</f>
+        <v>-13.281705948372707</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="K34" s="35">
+      <c r="I34" s="24">
+        <f>+I6/E6-1</f>
+        <v>0.19445597779768797</v>
+      </c>
+      <c r="K34" s="24">
         <f>+K6/G6-1</f>
         <v>0.18269430439859335</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="31" t="s">
+      <c r="L34" s="24">
+        <f>+L6/H6-1</f>
+        <v>0.17626170270305086</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="L35" s="31">
+      <c r="H35" s="22">
+        <f t="shared" ref="H35:I35" si="18">+H6/G6-1</f>
+        <v>5.7391754296977071E-2</v>
+      </c>
+      <c r="I35" s="22">
+        <f t="shared" si="18"/>
+        <v>5.5841371228413594E-2</v>
+      </c>
+      <c r="L35" s="22">
         <f>+L6/K6-1</f>
-        <v>5.0601577341546244E-2</v>
+        <v>5.1640665476944347E-2</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="2:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="29" t="s">
+    <row r="39" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="K39" s="29">
+      <c r="K39" s="20">
         <v>594.87099999999998</v>
       </c>
     </row>
@@ -1843,11 +2178,11 @@
         <v>3.4630000000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="29" t="s">
+    <row r="41" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="K41" s="29">
+      <c r="K41" s="20">
         <v>552.45899999999995</v>
       </c>
     </row>
@@ -2007,11 +2342,11 @@
         <v>27.724</v>
       </c>
     </row>
-    <row r="62" spans="2:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="29" t="s">
+    <row r="62" spans="2:11" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="K62" s="29">
+      <c r="K62" s="20">
         <v>568.88699999999994</v>
       </c>
     </row>
@@ -2103,34 +2438,52 @@
         <v>578.44299999999998</v>
       </c>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B85" s="32" t="s">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B85" s="23" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="3" t="s">
         <v>67</v>
       </c>
       <c r="G86" s="3">
         <v>37.811999999999998</v>
       </c>
+      <c r="H86" s="3">
+        <v>-2.387</v>
+      </c>
+      <c r="I86" s="3">
+        <v>52.389000000000003</v>
+      </c>
       <c r="K86" s="3">
         <v>52.573999999999998</v>
       </c>
-    </row>
-    <row r="87" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>38.377000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="3" t="s">
         <v>68</v>
       </c>
       <c r="G87" s="3">
         <v>0.63200000000000001</v>
       </c>
+      <c r="H87" s="3">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="I87" s="3">
+        <v>1.077</v>
+      </c>
       <c r="K87" s="3">
         <v>0.747</v>
       </c>
-    </row>
-    <row r="88" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
         <v>69</v>
       </c>
@@ -2138,14 +2491,28 @@
         <f>+G86-G87</f>
         <v>37.18</v>
       </c>
+      <c r="H88" s="3">
+        <f>+H86-H87</f>
+        <v>-3.2829999999999999</v>
+      </c>
+      <c r="I88" s="3">
+        <f>+I86-I87</f>
+        <v>51.312000000000005</v>
+      </c>
       <c r="K88" s="3">
         <f>+K86-K87</f>
         <v>51.826999999999998</v>
       </c>
+      <c r="L88" s="3">
+        <f>+L86-L87</f>
+        <v>37.661999999999999</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K1" r:id="rId1" xr:uid="{267B7692-FC69-4A91-B418-4E74EE630B4E}"/>
+    <hyperlink ref="L1" r:id="rId2" xr:uid="{D62D5055-D875-4834-8EBE-6475C8173F0F}"/>
+    <hyperlink ref="I1" r:id="rId3" xr:uid="{6C91A7E0-5C0D-43D5-8B5E-96C206CFFDBA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/$ESTC.xlsx
+++ b/$ESTC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2C98DE-BC60-4062-818A-89AF5B76EB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE04C68-5AF1-4DEA-9709-1DACDBCA9F4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C17CCCFF-BC06-47D8-B432-71950F7FA339}"/>
   </bookViews>
@@ -20,15 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -584,12 +575,6 @@
     <xf numFmtId="3" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -597,6 +582,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -947,11 +938,11 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -1023,11 +1014,11 @@
       <c r="D12" s="8"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
@@ -1046,15 +1037,15 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="14" t="s">
@@ -1109,15 +1100,15 @@
       <c r="B30" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="30"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="33"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="31"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="14" t="s">
@@ -1157,6 +1148,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B15:D15"/>
@@ -1169,14 +1168,6 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1185,13 +1176,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8FF81E-C7BC-429A-AF70-7B66A6FE5D82}">
-  <dimension ref="A1:T88"/>
+  <dimension ref="A1:U88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1201,7 +1192,7 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C1" s="16" t="s">
         <v>32</v>
       </c>
@@ -1254,11 +1245,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
       <c r="E2" s="18">
         <v>44957</v>
       </c>
+      <c r="F2" s="18">
+        <v>45046</v>
+      </c>
       <c r="G2" s="18">
         <v>45138</v>
       </c>
@@ -1268,32 +1262,50 @@
       <c r="I2" s="18">
         <v>45322</v>
       </c>
+      <c r="J2" s="18">
+        <v>45412</v>
+      </c>
       <c r="K2" s="18">
         <v>45504</v>
       </c>
       <c r="L2" s="18">
         <v>45596</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S2" s="18">
+        <v>45046</v>
+      </c>
+      <c r="T2" s="18">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="I3" s="25">
         <v>45351</v>
       </c>
+      <c r="J3" s="25">
+        <v>45442</v>
+      </c>
       <c r="K3" s="25">
         <v>45524</v>
       </c>
       <c r="L3" s="25">
         <v>45617</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T3" s="25">
+        <v>45442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="19" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="3">
         <v>255.613</v>
       </c>
+      <c r="F4" s="3">
+        <v>256.12400000000002</v>
+      </c>
       <c r="G4" s="3">
         <v>270.24700000000001</v>
       </c>
@@ -1303,20 +1315,30 @@
       <c r="I4" s="3">
         <v>307.63200000000001</v>
       </c>
+      <c r="J4" s="3">
+        <v>310.98399999999998</v>
+      </c>
       <c r="K4" s="3">
         <v>323.774</v>
       </c>
       <c r="L4" s="3">
         <v>340.80700000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T4" s="3">
+        <f>+SUM(G4:J4)</f>
+        <v>1176.606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="3">
         <v>18.952999999999999</v>
       </c>
+      <c r="F5" s="3">
+        <v>23.817</v>
+      </c>
       <c r="G5" s="3">
         <v>23.506</v>
       </c>
@@ -1326,14 +1348,21 @@
       <c r="I5" s="3">
         <v>20.324999999999999</v>
       </c>
+      <c r="J5" s="3">
+        <v>24.015000000000001</v>
+      </c>
       <c r="K5" s="3">
         <v>23.646000000000001</v>
       </c>
       <c r="L5" s="3">
         <v>24.553999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T5" s="3">
+        <f>+SUM(G5:J5)</f>
+        <v>90.715000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>36</v>
       </c>
@@ -1350,8 +1379,8 @@
         <v>274.56599999999997</v>
       </c>
       <c r="F6" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>+F4+F5</f>
+        <v>279.94100000000003</v>
       </c>
       <c r="G6" s="20">
         <f t="shared" si="0"/>
@@ -1366,8 +1395,8 @@
         <v>327.95699999999999</v>
       </c>
       <c r="J6" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>+J4+J5</f>
+        <v>334.99899999999997</v>
       </c>
       <c r="K6" s="20">
         <f>+K4+K5</f>
@@ -1377,14 +1406,33 @@
         <f>+L4+L5</f>
         <v>365.36099999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M6" s="20">
+        <f>+L6*1.18</f>
+        <v>431.12597999999997</v>
+      </c>
+      <c r="N6" s="20">
+        <f>+M6*1.18</f>
+        <v>508.72865639999992</v>
+      </c>
+      <c r="T6" s="20">
+        <f>+T4+T5</f>
+        <v>1267.3209999999999</v>
+      </c>
+      <c r="U6" s="20">
+        <f>+SUM(K6:N6)</f>
+        <v>1652.6356363999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="19" t="s">
         <v>59</v>
       </c>
       <c r="E7" s="3">
         <v>56.146000000000001</v>
       </c>
+      <c r="F7" s="3">
+        <v>54.508000000000003</v>
+      </c>
       <c r="G7" s="3">
         <v>57.265999999999998</v>
       </c>
@@ -1394,20 +1442,30 @@
       <c r="I7" s="3">
         <v>63.975999999999999</v>
       </c>
+      <c r="J7" s="3">
+        <v>65.046999999999997</v>
+      </c>
       <c r="K7" s="3">
         <v>68.346999999999994</v>
       </c>
       <c r="L7" s="3">
         <v>69.941000000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T7" s="3">
+        <f>+SUM(G7:J7)</f>
+        <v>246.285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="19" t="s">
         <v>58</v>
       </c>
       <c r="E8" s="3">
         <v>19.062000000000001</v>
       </c>
+      <c r="F8" s="3">
+        <v>19.173999999999999</v>
+      </c>
       <c r="G8" s="3">
         <v>20.210999999999999</v>
       </c>
@@ -1417,14 +1475,21 @@
       <c r="I8" s="3">
         <v>20.666</v>
       </c>
+      <c r="J8" s="3">
+        <v>22.824000000000002</v>
+      </c>
       <c r="K8" s="3">
         <v>23.41</v>
       </c>
       <c r="L8" s="3">
         <v>23.238</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <f>+SUM(G8:J8)</f>
+        <v>83.793999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>37</v>
       </c>
@@ -1441,8 +1506,8 @@
         <v>75.207999999999998</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>+F7+F8</f>
+        <v>73.682000000000002</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="1"/>
@@ -1457,8 +1522,8 @@
         <v>84.641999999999996</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>+J7+J8</f>
+        <v>87.870999999999995</v>
       </c>
       <c r="K9" s="3">
         <f>+K7+K8</f>
@@ -1468,8 +1533,12 @@
         <f>+L7+L8</f>
         <v>93.179000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <f>+T7+T8</f>
+        <v>330.07900000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
         <v>38</v>
       </c>
@@ -1486,8 +1555,8 @@
         <v>199.35799999999998</v>
       </c>
       <c r="F10" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>+F6-F9</f>
+        <v>206.25900000000001</v>
       </c>
       <c r="G10" s="20">
         <f t="shared" si="2"/>
@@ -1502,8 +1571,8 @@
         <v>243.315</v>
       </c>
       <c r="J10" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>+J6-J9</f>
+        <v>247.12799999999999</v>
       </c>
       <c r="K10" s="20">
         <f>+K6-K9</f>
@@ -1513,8 +1582,12 @@
         <f>+L6-L9</f>
         <v>272.18200000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T10" s="20">
+        <f>+T6-T9</f>
+        <v>937.24199999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="19" t="s">
         <v>60</v>
       </c>
@@ -1531,8 +1604,8 @@
         <v>199.46699999999998</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>+F4-F7</f>
+        <v>201.61600000000001</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="3"/>
@@ -1547,8 +1620,8 @@
         <v>243.65600000000001</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>+J4-J7</f>
+        <v>245.93699999999998</v>
       </c>
       <c r="K11" s="3">
         <f>+K4-K7</f>
@@ -1558,8 +1631,12 @@
         <f>+L4-L7</f>
         <v>270.86599999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T11" s="3">
+        <f>+T4-T7</f>
+        <v>930.32100000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="19" t="s">
         <v>61</v>
       </c>
@@ -1576,8 +1653,8 @@
         <v>-0.10900000000000176</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>+F5-F8</f>
+        <v>4.6430000000000007</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="4"/>
@@ -1592,8 +1669,8 @@
         <v>-0.34100000000000108</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>+J5-J8</f>
+        <v>1.1909999999999989</v>
       </c>
       <c r="K12" s="3">
         <f>+K5-K8</f>
@@ -1603,14 +1680,21 @@
         <f>+L5-L8</f>
         <v>1.3159999999999989</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <f>+T5-T8</f>
+        <v>6.9210000000000065</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="3">
         <v>77.471999999999994</v>
       </c>
+      <c r="F13" s="3">
+        <v>81.765000000000001</v>
+      </c>
       <c r="G13" s="3">
         <v>80.69</v>
       </c>
@@ -1620,20 +1704,30 @@
       <c r="I13" s="3">
         <v>87.201999999999998</v>
       </c>
+      <c r="J13" s="3">
+        <v>93.950999999999993</v>
+      </c>
       <c r="K13" s="3">
         <v>89.331999999999994</v>
       </c>
       <c r="L13" s="3">
         <v>88.162999999999997</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <f>+SUM(G13:J13)</f>
+        <v>341.95100000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="3">
         <v>126.717</v>
       </c>
+      <c r="F14" s="3">
+        <v>123.63500000000001</v>
+      </c>
       <c r="G14" s="3">
         <v>133.16900000000001</v>
       </c>
@@ -1643,20 +1737,30 @@
       <c r="I14" s="3">
         <v>141.62100000000001</v>
       </c>
+      <c r="J14" s="3">
+        <v>151.62799999999999</v>
+      </c>
       <c r="K14" s="3">
         <v>157.357</v>
       </c>
       <c r="L14" s="3">
         <v>144.274</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <f>+SUM(G14:J14)</f>
+        <v>559.64799999999991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="3">
         <v>34.710999999999999</v>
       </c>
+      <c r="F15" s="3">
+        <v>39.523000000000003</v>
+      </c>
       <c r="G15" s="3">
         <v>37.939</v>
       </c>
@@ -1666,20 +1770,30 @@
       <c r="I15" s="3">
         <v>40.896000000000001</v>
       </c>
+      <c r="J15" s="3">
+        <v>43.097999999999999</v>
+      </c>
       <c r="K15" s="3">
         <v>42.673000000000002</v>
       </c>
       <c r="L15" s="3">
         <v>44.085000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <f>+SUM(G15:J15)</f>
+        <v>160.62799999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="3">
         <v>29.805</v>
       </c>
+      <c r="F16" s="3">
+        <v>1.492</v>
+      </c>
       <c r="G16" s="3">
         <v>0.72499999999999998</v>
       </c>
@@ -1689,14 +1803,21 @@
       <c r="I16" s="3">
         <v>0</v>
       </c>
+      <c r="J16" s="3">
+        <v>4.1630000000000003</v>
+      </c>
       <c r="K16" s="3">
         <v>0.13900000000000001</v>
       </c>
       <c r="L16" s="3">
         <v>8.5999999999999993E-2</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T16" s="3">
+        <f>+SUM(G16:J16)</f>
+        <v>4.9169999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="20" t="s">
         <v>43</v>
       </c>
@@ -1713,8 +1834,8 @@
         <v>-69.347000000000008</v>
       </c>
       <c r="F17" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>+F10-SUM(F13:F16)</f>
+        <v>-40.155999999999977</v>
       </c>
       <c r="G17" s="20">
         <f t="shared" si="5"/>
@@ -1729,8 +1850,8 @@
         <v>-26.403999999999996</v>
       </c>
       <c r="J17" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>+J10-SUM(J13:J16)</f>
+        <v>-45.711999999999989</v>
       </c>
       <c r="K17" s="20">
         <f>+K10-SUM(K13:K16)</f>
@@ -1740,14 +1861,21 @@
         <f>+L10-SUM(L13:L16)</f>
         <v>-4.4259999999999877</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T17" s="20">
+        <f>+T10-SUM(T13:T16)</f>
+        <v>-129.90199999999982</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E18" s="3">
         <v>6.2649999999999997</v>
       </c>
+      <c r="F18" s="3">
+        <v>6.2839999999999998</v>
+      </c>
       <c r="G18" s="3">
         <v>6.306</v>
       </c>
@@ -1757,20 +1885,30 @@
       <c r="I18" s="3">
         <v>6.3680000000000003</v>
       </c>
+      <c r="J18" s="3">
+        <v>7.109</v>
+      </c>
       <c r="K18" s="3">
         <v>6.5259999999999998</v>
       </c>
       <c r="L18" s="3">
         <v>6.4619999999999997</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <f>+SUM(G18:J18)</f>
+        <v>26.132000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="3">
         <v>5.46</v>
       </c>
+      <c r="F19" s="3">
+        <v>6.68</v>
+      </c>
       <c r="G19" s="3">
         <v>7.3</v>
       </c>
@@ -1780,14 +1918,21 @@
       <c r="I19" s="3">
         <v>8.5679999999999996</v>
       </c>
+      <c r="J19" s="3">
+        <v>9.1709999999999994</v>
+      </c>
       <c r="K19" s="3">
         <v>11.208</v>
       </c>
       <c r="L19" s="3">
         <v>9.1059999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T19" s="3">
+        <f>+SUM(G19:J19)</f>
+        <v>33.277999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>45</v>
       </c>
@@ -1804,8 +1949,8 @@
         <v>-70.152000000000015</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>+F17-F18+F19</f>
+        <v>-39.759999999999977</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" si="6"/>
@@ -1820,8 +1965,8 @@
         <v>-24.204000000000001</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>+J17-J18+J19</f>
+        <v>-43.649999999999991</v>
       </c>
       <c r="K20" s="3">
         <f>+K17-K18+K19</f>
@@ -1831,28 +1976,45 @@
         <f>+L17-L18+L19</f>
         <v>-1.7819999999999876</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <f>+T17-T18+T19</f>
+        <v>-122.75599999999983</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E21" s="3">
         <v>2.4220000000000002</v>
       </c>
+      <c r="F21" s="3">
+        <v>6.9710000000000001</v>
+      </c>
       <c r="G21" s="3">
         <v>13.255000000000001</v>
       </c>
+      <c r="H21" s="3">
+        <v>5.1470000000000002</v>
+      </c>
       <c r="I21" s="3">
         <v>-200.328</v>
       </c>
+      <c r="J21" s="3">
+        <v>-2.5499999999999998</v>
+      </c>
       <c r="K21" s="3">
         <v>20.071000000000002</v>
       </c>
       <c r="L21" s="3">
         <v>23.667999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <f>+SUM(G21:J21)</f>
+        <v>-184.476</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="20" t="s">
         <v>47</v>
       </c>
@@ -1869,8 +2031,8 @@
         <v>-72.574000000000012</v>
       </c>
       <c r="F22" s="20">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>+F20-F21</f>
+        <v>-46.73099999999998</v>
       </c>
       <c r="G22" s="20">
         <f t="shared" si="7"/>
@@ -1878,15 +2040,15 @@
       </c>
       <c r="H22" s="20">
         <f t="shared" si="7"/>
-        <v>-19.649000000000015</v>
+        <v>-24.796000000000014</v>
       </c>
       <c r="I22" s="20">
         <f t="shared" si="7"/>
         <v>176.124</v>
       </c>
       <c r="J22" s="20">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>+J20-J21</f>
+        <v>-41.099999999999994</v>
       </c>
       <c r="K22" s="20">
         <f>+K20-K21</f>
@@ -1896,8 +2058,12 @@
         <f>+L20-L21</f>
         <v>-25.449999999999989</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T22" s="20">
+        <f>+T20-T21</f>
+        <v>61.720000000000169</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="21" t="s">
         <v>48</v>
       </c>
@@ -1905,18 +2071,26 @@
         <f>+E22/E24</f>
         <v>-0.75556970298127513</v>
       </c>
+      <c r="F23" s="21">
+        <f>+F22/F24</f>
+        <v>-0.48187196353302347</v>
+      </c>
       <c r="G23" s="21">
         <f>+G22/G24</f>
         <v>-0.49527246463875757</v>
       </c>
       <c r="H23" s="21">
         <f>+H22/H24</f>
-        <v>-0.19832770250816376</v>
+        <v>-0.25027908348477923</v>
       </c>
       <c r="I23" s="21">
         <f>+I22/I24</f>
         <v>1.7562841349907246</v>
       </c>
+      <c r="J23" s="21">
+        <f>+J22/J24</f>
+        <v>-0.40563042266068267</v>
+      </c>
       <c r="K23" s="21">
         <f>+K22/K24</f>
         <v>-0.48127557237814295</v>
@@ -1925,14 +2099,21 @@
         <f>+L22/L24</f>
         <v>-0.24651598808741745</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T23" s="21">
+        <f>+T22/T24</f>
+        <v>0.60913648872548432</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="3">
         <v>96.052025</v>
       </c>
+      <c r="F24" s="3">
+        <v>96.978043</v>
+      </c>
       <c r="G24" s="3">
         <v>97.942048999999997</v>
       </c>
@@ -1942,14 +2123,21 @@
       <c r="I24" s="3">
         <v>100.282179</v>
       </c>
+      <c r="J24" s="3">
+        <v>101.323761</v>
+      </c>
       <c r="K24" s="3">
         <v>102.284435</v>
       </c>
       <c r="L24" s="3">
         <v>103.23874000000001</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <f>+J24</f>
+        <v>101.323761</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="22" t="s">
         <v>55</v>
       </c>
@@ -1957,6 +2145,10 @@
         <f>+E11/E4</f>
         <v>0.78034763490119818</v>
       </c>
+      <c r="F26" s="22">
+        <f>+F11/F4</f>
+        <v>0.78718120910184131</v>
+      </c>
       <c r="G26" s="22">
         <f>+G11/G4</f>
         <v>0.78809755519950275</v>
@@ -1969,6 +2161,10 @@
         <f t="shared" si="8"/>
         <v>0.79203723929890257</v>
       </c>
+      <c r="J26" s="22">
+        <f>+J11/J4</f>
+        <v>0.79083489825843134</v>
+      </c>
       <c r="K26" s="22">
         <f>+K11/K4</f>
         <v>0.78890522401428165</v>
@@ -1977,8 +2173,12 @@
         <f t="shared" ref="L26:L27" si="9">+L11/L4</f>
         <v>0.79477827626779962</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T26" s="22">
+        <f t="shared" ref="T26:T27" si="10">+T11/T4</f>
+        <v>0.79068184251992601</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="22" t="s">
         <v>56</v>
       </c>
@@ -1986,6 +2186,10 @@
         <f>+E12/E5</f>
         <v>-5.75106843243823E-3</v>
       </c>
+      <c r="F27" s="22">
+        <f>+F12/F5</f>
+        <v>0.19494478733677628</v>
+      </c>
       <c r="G27" s="22">
         <f>+G12/G5</f>
         <v>0.14017697609121083</v>
@@ -1998,6 +2202,10 @@
         <f t="shared" si="8"/>
         <v>-1.677736777367779E-2</v>
       </c>
+      <c r="J27" s="22">
+        <f>+J12/J5</f>
+        <v>4.959400374765767E-2</v>
+      </c>
       <c r="K27" s="22">
         <f>+K12/K5</f>
         <v>9.9805463926245733E-3</v>
@@ -2006,8 +2214,12 @@
         <f t="shared" si="9"/>
         <v>5.3596155412560034E-2</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T27" s="22">
+        <f t="shared" si="10"/>
+        <v>7.6293887449705194E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="22" t="s">
         <v>57</v>
       </c>
@@ -2015,28 +2227,40 @@
         <f>+E10/E6</f>
         <v>0.72608407450303381</v>
       </c>
+      <c r="F29" s="22">
+        <f>+F10/F6</f>
+        <v>0.7367945388492575</v>
+      </c>
       <c r="G29" s="22">
         <f>+G10/G6</f>
         <v>0.73625120424302049</v>
       </c>
       <c r="H29" s="22">
-        <f t="shared" ref="H29:I29" si="10">+H10/H6</f>
+        <f t="shared" ref="H29:I29" si="11">+H10/H6</f>
         <v>0.7421574182581484</v>
       </c>
       <c r="I29" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.74191128715044963</v>
+      </c>
+      <c r="J29" s="22">
+        <f>+J10/J6</f>
+        <v>0.73769772447081938</v>
       </c>
       <c r="K29" s="22">
         <f>+K10/K6</f>
         <v>0.73589027689827868</v>
       </c>
       <c r="L29" s="22">
-        <f t="shared" ref="L29" si="11">+L10/L6</f>
+        <f t="shared" ref="L29" si="12">+L10/L6</f>
         <v>0.74496730630800778</v>
       </c>
-    </row>
-    <row r="30" spans="2:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T29" s="22">
+        <f t="shared" ref="T29" si="13">+T10/T6</f>
+        <v>0.73954586091448027</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="22" t="s">
         <v>62</v>
       </c>
@@ -2044,28 +2268,40 @@
         <f>+E17/E6</f>
         <v>-0.2525695096989431</v>
       </c>
+      <c r="F30" s="22">
+        <f>+F17/F6</f>
+        <v>-0.14344451152207063</v>
+      </c>
       <c r="G30" s="22">
         <f>+G17/G6</f>
         <v>-0.12339278237158413</v>
       </c>
       <c r="H30" s="22">
-        <f t="shared" ref="H30:I30" si="12">+H17/H6</f>
+        <f t="shared" ref="H30:I30" si="14">+H17/H6</f>
         <v>-6.9343747182980753E-2</v>
       </c>
       <c r="I30" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-8.0510554737358853E-2</v>
+      </c>
+      <c r="J30" s="22">
+        <f>+J17/J6</f>
+        <v>-0.13645413866907063</v>
       </c>
       <c r="K30" s="22">
         <f>+K17/K6</f>
         <v>-9.7397962120775908E-2</v>
       </c>
       <c r="L30" s="22">
-        <f t="shared" ref="L30" si="13">+L17/L6</f>
+        <f t="shared" ref="L30" si="15">+L17/L6</f>
         <v>-1.2114046107822093E-2</v>
       </c>
-    </row>
-    <row r="31" spans="2:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T30" s="22">
+        <f t="shared" ref="T30" si="16">+T17/T6</f>
+        <v>-0.10250126053304555</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="22" t="s">
         <v>63</v>
       </c>
@@ -2073,28 +2309,40 @@
         <f>+E22/E6</f>
         <v>-0.26432260367270538</v>
       </c>
+      <c r="F31" s="22">
+        <f>+F22/F6</f>
+        <v>-0.16693160344501154</v>
+      </c>
       <c r="G31" s="22">
         <f>+G22/G6</f>
         <v>-0.16513193056751746</v>
       </c>
       <c r="H31" s="22">
-        <f t="shared" ref="H31:I31" si="14">+H22/H6</f>
-        <v>-6.3258985486716601E-2</v>
+        <f t="shared" ref="H31:I31" si="17">+H22/H6</f>
+        <v>-7.9829497894479337E-2</v>
       </c>
       <c r="I31" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.53703381845790754</v>
+      </c>
+      <c r="J31" s="22">
+        <f>+J22/J6</f>
+        <v>-0.12268693339383102</v>
       </c>
       <c r="K31" s="22">
         <f>+K22/K6</f>
         <v>-0.141693051637787</v>
       </c>
       <c r="L31" s="22">
-        <f t="shared" ref="L31" si="15">+L22/L6</f>
+        <f t="shared" ref="L31" si="18">+L22/L6</f>
         <v>-6.9657133629478757E-2</v>
       </c>
-    </row>
-    <row r="32" spans="2:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T31" s="22">
+        <f t="shared" ref="T31" si="19">+T22/T6</f>
+        <v>4.8701157796643607E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="22" t="s">
         <v>64</v>
       </c>
@@ -2102,28 +2350,40 @@
         <f>+E21/E20</f>
         <v>-3.4525031360474391E-2</v>
       </c>
+      <c r="F32" s="22">
+        <f>+F21/F20</f>
+        <v>-0.17532696177062385</v>
+      </c>
       <c r="G32" s="22">
         <f>+G21/G20</f>
         <v>-0.37599636910333922</v>
       </c>
       <c r="H32" s="22">
-        <f t="shared" ref="H32:I32" si="16">+H21/H20</f>
-        <v>0</v>
+        <f t="shared" ref="H32:I32" si="20">+H21/H20</f>
+        <v>-0.26194717288411606</v>
       </c>
       <c r="I32" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>8.2766484878532474</v>
+      </c>
+      <c r="J32" s="22">
+        <f>+J21/J20</f>
+        <v>5.8419243986254303E-2</v>
       </c>
       <c r="K32" s="22">
         <f>+K21/K20</f>
         <v>-0.68840032926327432</v>
       </c>
       <c r="L32" s="22">
-        <f t="shared" ref="L32" si="17">+L21/L20</f>
+        <f t="shared" ref="L32" si="21">+L21/L20</f>
         <v>-13.281705948372707</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T32" s="22">
+        <f t="shared" ref="T32" si="22">+T21/T20</f>
+        <v>1.5027860145328966</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
         <v>96</v>
       </c>
@@ -2139,17 +2399,21 @@
         <f>+L6/H6-1</f>
         <v>0.17626170270305086</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U34" s="24">
+        <f>+U6/T6-1</f>
+        <v>0.30403870558445734</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="22" t="s">
         <v>97</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" ref="H35:I35" si="18">+H6/G6-1</f>
+        <f t="shared" ref="H35:I35" si="23">+H6/G6-1</f>
         <v>5.7391754296977071E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>5.5841371228413594E-2</v>
       </c>
       <c r="L35" s="22">
@@ -2157,12 +2421,12 @@
         <v>5.1640665476944347E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B38" s="23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="20" t="s">
         <v>6</v>
       </c>
@@ -2170,7 +2434,7 @@
         <v>594.87099999999998</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
         <v>70</v>
       </c>
@@ -2178,7 +2442,7 @@
         <v>3.4630000000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:21" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="20" t="s">
         <v>71</v>
       </c>
@@ -2186,7 +2450,7 @@
         <v>552.45899999999995</v>
       </c>
     </row>
-    <row r="42" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
         <v>72</v>
       </c>
@@ -2194,7 +2458,7 @@
         <v>196.47399999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
         <v>73</v>
       </c>
@@ -2202,7 +2466,7 @@
         <v>76.265000000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>74</v>
       </c>
@@ -2210,7 +2474,7 @@
         <v>42.643000000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>75</v>
       </c>
@@ -2219,7 +2483,7 @@
         <v>1466.175</v>
       </c>
     </row>
-    <row r="46" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
         <v>76</v>
       </c>
@@ -2227,7 +2491,7 @@
         <v>4.9530000000000003</v>
       </c>
     </row>
-    <row r="47" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
         <v>77</v>
       </c>
@@ -2235,7 +2499,7 @@
         <v>319.41699999999997</v>
       </c>
     </row>
-    <row r="48" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
         <v>78</v>
       </c>
@@ -2515,5 +2779,9 @@
     <hyperlink ref="I1" r:id="rId3" xr:uid="{6C91A7E0-5C0D-43D5-8B5E-96C206CFFDBA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="T4:T5 T22:T24" formulaRange="1"/>
+    <ignoredError sqref="T6:T21" formula="1" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/$ESTC.xlsx
+++ b/$ESTC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE04C68-5AF1-4DEA-9709-1DACDBCA9F4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DFF5D7-19E1-47E3-BB08-4F52DA3674B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C17CCCFF-BC06-47D8-B432-71950F7FA339}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C17CCCFF-BC06-47D8-B432-71950F7FA339}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="101">
   <si>
     <t>$ESTC</t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>Q425</t>
+  </si>
+  <si>
+    <t>Mountain View, CA</t>
   </si>
 </sst>
 </file>
@@ -511,7 +514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -569,6 +572,9 @@
     <xf numFmtId="15" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -588,6 +594,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -913,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691FEFE0-031E-449B-9B3E-DEA7EAB8B130}">
   <dimension ref="B2:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -938,11 +950,11 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -958,10 +970,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="3">
-        <f>+'Financial Model'!K24</f>
-        <v>102.284435</v>
-      </c>
-      <c r="D7" s="5"/>
+        <f>+'Financial Model'!L24</f>
+        <v>103.23874000000001</v>
+      </c>
+      <c r="D7" s="27" t="str">
+        <f>+$C$29</f>
+        <v>Q225</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
@@ -969,7 +984,7 @@
       </c>
       <c r="C8" s="3">
         <f>C6*C7</f>
-        <v>9527.7951202500008</v>
+        <v>9616.6886310000009</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -981,7 +996,10 @@
         <f>+'Financial Model'!K73</f>
         <v>1147.33</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="27" t="str">
+        <f t="shared" ref="D9:D11" si="0">+$C$29</f>
+        <v>Q225</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
@@ -991,7 +1009,10 @@
         <f>+'Financial Model'!K74</f>
         <v>568.88699999999994</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>Q225</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
@@ -1001,7 +1022,10 @@
         <f>C9-C10</f>
         <v>578.44299999999998</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>Q225</v>
+      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
@@ -1009,142 +1033,151 @@
       </c>
       <c r="C12" s="7">
         <f>C8-C11</f>
-        <v>8949.3521202500015</v>
+        <v>9038.2456310000016</v>
       </c>
       <c r="D12" s="8"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="11"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="11"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
+      <c r="C23" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="29"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
+      <c r="C24" s="35">
+        <v>2012</v>
+      </c>
+      <c r="D24" s="36"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
+      <c r="C25" s="35">
+        <v>2018</v>
+      </c>
+      <c r="D25" s="36"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="14"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="14"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="29"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D29" s="26">
-        <v>45524</v>
+        <f>+'Financial Model'!L3</f>
+        <v>45617</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="34"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="32"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="34">
+      <c r="C34" s="37">
         <f>+C6/'Financial Model'!K71</f>
         <v>12.550196094773931</v>
       </c>
-      <c r="D34" s="35"/>
+      <c r="D34" s="38"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="29"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="29"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="14"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="29"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="28"/>
+      <c r="C38" s="28">
+        <v>64</v>
+      </c>
+      <c r="D38" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -1178,7 +1211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8FF81E-C7BC-429A-AF70-7B66A6FE5D82}">
   <dimension ref="A1:U88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -1367,7 +1400,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="20">
-        <f t="shared" ref="C6:J6" si="0">+C4+C5</f>
+        <f t="shared" ref="C6:I6" si="0">+C4+C5</f>
         <v>0</v>
       </c>
       <c r="D6" s="20">
@@ -1494,7 +1527,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" ref="C9:J9" si="1">+C7+C8</f>
+        <f t="shared" ref="C9:I9" si="1">+C7+C8</f>
         <v>0</v>
       </c>
       <c r="D9" s="3">
@@ -1543,7 +1576,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="20">
-        <f t="shared" ref="C10:J10" si="2">+C6-C9</f>
+        <f t="shared" ref="C10:I10" si="2">+C6-C9</f>
         <v>0</v>
       </c>
       <c r="D10" s="20">
@@ -1592,7 +1625,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" ref="C11:J11" si="3">+C4-C7</f>
+        <f t="shared" ref="C11:I11" si="3">+C4-C7</f>
         <v>0</v>
       </c>
       <c r="D11" s="3">
@@ -1620,15 +1653,15 @@
         <v>243.65600000000001</v>
       </c>
       <c r="J11" s="3">
-        <f>+J4-J7</f>
+        <f t="shared" ref="J11:L12" si="4">+J4-J7</f>
         <v>245.93699999999998</v>
       </c>
       <c r="K11" s="3">
-        <f>+K4-K7</f>
+        <f t="shared" si="4"/>
         <v>255.42700000000002</v>
       </c>
       <c r="L11" s="3">
-        <f>+L4-L7</f>
+        <f t="shared" si="4"/>
         <v>270.86599999999999</v>
       </c>
       <c r="T11" s="3">
@@ -1641,15 +1674,15 @@
         <v>61</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" ref="C12:J12" si="4">+C5-C8</f>
+        <f t="shared" ref="C12:I12" si="5">+C5-C8</f>
         <v>0</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.10900000000000176</v>
       </c>
       <c r="F12" s="3">
@@ -1657,27 +1690,27 @@
         <v>4.6430000000000007</v>
       </c>
       <c r="G12" s="3">
+        <f t="shared" si="5"/>
+        <v>3.2950000000000017</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="5"/>
+        <v>2.7759999999999998</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="5"/>
+        <v>-0.34100000000000108</v>
+      </c>
+      <c r="J12" s="3">
         <f t="shared" si="4"/>
-        <v>3.2950000000000017</v>
-      </c>
-      <c r="H12" s="3">
+        <v>1.1909999999999989</v>
+      </c>
+      <c r="K12" s="3">
         <f t="shared" si="4"/>
-        <v>2.7759999999999998</v>
-      </c>
-      <c r="I12" s="3">
+        <v>0.23600000000000065</v>
+      </c>
+      <c r="L12" s="3">
         <f t="shared" si="4"/>
-        <v>-0.34100000000000108</v>
-      </c>
-      <c r="J12" s="3">
-        <f>+J5-J8</f>
-        <v>1.1909999999999989</v>
-      </c>
-      <c r="K12" s="3">
-        <f>+K5-K8</f>
-        <v>0.23600000000000065</v>
-      </c>
-      <c r="L12" s="3">
-        <f>+L5-L8</f>
         <v>1.3159999999999989</v>
       </c>
       <c r="T12" s="3">
@@ -1822,15 +1855,15 @@
         <v>43</v>
       </c>
       <c r="C17" s="20">
-        <f t="shared" ref="C17:J17" si="5">+C10-SUM(C13:C16)</f>
+        <f t="shared" ref="C17:I17" si="6">+C10-SUM(C13:C16)</f>
         <v>0</v>
       </c>
       <c r="D17" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E17" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-69.347000000000008</v>
       </c>
       <c r="F17" s="20">
@@ -1838,15 +1871,15 @@
         <v>-40.155999999999977</v>
       </c>
       <c r="G17" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-36.246999999999957</v>
       </c>
       <c r="H17" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-21.539000000000016</v>
       </c>
       <c r="I17" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-26.403999999999996</v>
       </c>
       <c r="J17" s="20">
@@ -1937,15 +1970,15 @@
         <v>45</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" ref="C20:J20" si="6">+C17-C18+C19</f>
+        <f t="shared" ref="C20:I20" si="7">+C17-C18+C19</f>
         <v>0</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-70.152000000000015</v>
       </c>
       <c r="F20" s="3">
@@ -1953,15 +1986,15 @@
         <v>-39.759999999999977</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-35.252999999999957</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-19.649000000000015</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-24.204000000000001</v>
       </c>
       <c r="J20" s="3">
@@ -2019,15 +2052,15 @@
         <v>47</v>
       </c>
       <c r="C22" s="20">
-        <f t="shared" ref="C22:J22" si="7">+C20-C21</f>
+        <f t="shared" ref="C22:I22" si="8">+C20-C21</f>
         <v>0</v>
       </c>
       <c r="D22" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E22" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-72.574000000000012</v>
       </c>
       <c r="F22" s="20">
@@ -2035,15 +2068,15 @@
         <v>-46.73099999999998</v>
       </c>
       <c r="G22" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-48.50799999999996</v>
       </c>
       <c r="H22" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-24.796000000000014</v>
       </c>
       <c r="I22" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>176.124</v>
       </c>
       <c r="J22" s="20">
@@ -2068,35 +2101,35 @@
         <v>48</v>
       </c>
       <c r="E23" s="21">
-        <f>+E22/E24</f>
+        <f t="shared" ref="E23:L23" si="9">+E22/E24</f>
         <v>-0.75556970298127513</v>
       </c>
       <c r="F23" s="21">
-        <f>+F22/F24</f>
+        <f t="shared" si="9"/>
         <v>-0.48187196353302347</v>
       </c>
       <c r="G23" s="21">
-        <f>+G22/G24</f>
+        <f t="shared" si="9"/>
         <v>-0.49527246463875757</v>
       </c>
       <c r="H23" s="21">
-        <f>+H22/H24</f>
+        <f t="shared" si="9"/>
         <v>-0.25027908348477923</v>
       </c>
       <c r="I23" s="21">
-        <f>+I22/I24</f>
+        <f t="shared" si="9"/>
         <v>1.7562841349907246</v>
       </c>
       <c r="J23" s="21">
-        <f>+J22/J24</f>
+        <f t="shared" si="9"/>
         <v>-0.40563042266068267</v>
       </c>
       <c r="K23" s="21">
-        <f>+K22/K24</f>
+        <f t="shared" si="9"/>
         <v>-0.48127557237814295</v>
       </c>
       <c r="L23" s="21">
-        <f>+L22/L24</f>
+        <f t="shared" si="9"/>
         <v>-0.24651598808741745</v>
       </c>
       <c r="T23" s="21">
@@ -2142,23 +2175,23 @@
         <v>55</v>
       </c>
       <c r="E26" s="22">
-        <f>+E11/E4</f>
+        <f t="shared" ref="E26:G27" si="10">+E11/E4</f>
         <v>0.78034763490119818</v>
       </c>
       <c r="F26" s="22">
-        <f>+F11/F4</f>
+        <f t="shared" si="10"/>
         <v>0.78718120910184131</v>
       </c>
       <c r="G26" s="22">
-        <f>+G11/G4</f>
+        <f t="shared" si="10"/>
         <v>0.78809755519950275</v>
       </c>
       <c r="H26" s="22">
-        <f t="shared" ref="H26:I27" si="8">+H11/H4</f>
+        <f t="shared" ref="H26:I27" si="11">+H11/H4</f>
         <v>0.79149449334996846</v>
       </c>
       <c r="I26" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.79203723929890257</v>
       </c>
       <c r="J26" s="22">
@@ -2170,11 +2203,11 @@
         <v>0.78890522401428165</v>
       </c>
       <c r="L26" s="22">
-        <f t="shared" ref="L26:L27" si="9">+L11/L4</f>
+        <f t="shared" ref="L26:L27" si="12">+L11/L4</f>
         <v>0.79477827626779962</v>
       </c>
       <c r="T26" s="22">
-        <f t="shared" ref="T26:T27" si="10">+T11/T4</f>
+        <f t="shared" ref="T26:T27" si="13">+T11/T4</f>
         <v>0.79068184251992601</v>
       </c>
     </row>
@@ -2183,23 +2216,23 @@
         <v>56</v>
       </c>
       <c r="E27" s="22">
-        <f>+E12/E5</f>
+        <f t="shared" si="10"/>
         <v>-5.75106843243823E-3</v>
       </c>
       <c r="F27" s="22">
-        <f>+F12/F5</f>
+        <f t="shared" si="10"/>
         <v>0.19494478733677628</v>
       </c>
       <c r="G27" s="22">
-        <f>+G12/G5</f>
+        <f t="shared" si="10"/>
         <v>0.14017697609121083</v>
       </c>
       <c r="H27" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.12138703047793956</v>
       </c>
       <c r="I27" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-1.677736777367779E-2</v>
       </c>
       <c r="J27" s="22">
@@ -2211,11 +2244,11 @@
         <v>9.9805463926245733E-3</v>
       </c>
       <c r="L27" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5.3596155412560034E-2</v>
       </c>
       <c r="T27" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7.6293887449705194E-2</v>
       </c>
     </row>
@@ -2236,11 +2269,11 @@
         <v>0.73625120424302049</v>
       </c>
       <c r="H29" s="22">
-        <f t="shared" ref="H29:I29" si="11">+H10/H6</f>
+        <f t="shared" ref="H29:I29" si="14">+H10/H6</f>
         <v>0.7421574182581484</v>
       </c>
       <c r="I29" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.74191128715044963</v>
       </c>
       <c r="J29" s="22">
@@ -2252,11 +2285,11 @@
         <v>0.73589027689827868</v>
       </c>
       <c r="L29" s="22">
-        <f t="shared" ref="L29" si="12">+L10/L6</f>
+        <f t="shared" ref="L29" si="15">+L10/L6</f>
         <v>0.74496730630800778</v>
       </c>
       <c r="T29" s="22">
-        <f t="shared" ref="T29" si="13">+T10/T6</f>
+        <f t="shared" ref="T29" si="16">+T10/T6</f>
         <v>0.73954586091448027</v>
       </c>
     </row>
@@ -2277,11 +2310,11 @@
         <v>-0.12339278237158413</v>
       </c>
       <c r="H30" s="22">
-        <f t="shared" ref="H30:I30" si="14">+H17/H6</f>
+        <f t="shared" ref="H30:I30" si="17">+H17/H6</f>
         <v>-6.9343747182980753E-2</v>
       </c>
       <c r="I30" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-8.0510554737358853E-2</v>
       </c>
       <c r="J30" s="22">
@@ -2293,11 +2326,11 @@
         <v>-9.7397962120775908E-2</v>
       </c>
       <c r="L30" s="22">
-        <f t="shared" ref="L30" si="15">+L17/L6</f>
+        <f t="shared" ref="L30" si="18">+L17/L6</f>
         <v>-1.2114046107822093E-2</v>
       </c>
       <c r="T30" s="22">
-        <f t="shared" ref="T30" si="16">+T17/T6</f>
+        <f t="shared" ref="T30" si="19">+T17/T6</f>
         <v>-0.10250126053304555</v>
       </c>
     </row>
@@ -2318,11 +2351,11 @@
         <v>-0.16513193056751746</v>
       </c>
       <c r="H31" s="22">
-        <f t="shared" ref="H31:I31" si="17">+H22/H6</f>
+        <f t="shared" ref="H31:I31" si="20">+H22/H6</f>
         <v>-7.9829497894479337E-2</v>
       </c>
       <c r="I31" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.53703381845790754</v>
       </c>
       <c r="J31" s="22">
@@ -2334,11 +2367,11 @@
         <v>-0.141693051637787</v>
       </c>
       <c r="L31" s="22">
-        <f t="shared" ref="L31" si="18">+L22/L6</f>
+        <f t="shared" ref="L31" si="21">+L22/L6</f>
         <v>-6.9657133629478757E-2</v>
       </c>
       <c r="T31" s="22">
-        <f t="shared" ref="T31" si="19">+T22/T6</f>
+        <f t="shared" ref="T31" si="22">+T22/T6</f>
         <v>4.8701157796643607E-2</v>
       </c>
     </row>
@@ -2359,11 +2392,11 @@
         <v>-0.37599636910333922</v>
       </c>
       <c r="H32" s="22">
-        <f t="shared" ref="H32:I32" si="20">+H21/H20</f>
+        <f t="shared" ref="H32:I32" si="23">+H21/H20</f>
         <v>-0.26194717288411606</v>
       </c>
       <c r="I32" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>8.2766484878532474</v>
       </c>
       <c r="J32" s="22">
@@ -2375,11 +2408,11 @@
         <v>-0.68840032926327432</v>
       </c>
       <c r="L32" s="22">
-        <f t="shared" ref="L32" si="21">+L21/L20</f>
+        <f t="shared" ref="L32" si="24">+L21/L20</f>
         <v>-13.281705948372707</v>
       </c>
       <c r="T32" s="22">
-        <f t="shared" ref="T32" si="22">+T21/T20</f>
+        <f t="shared" ref="T32" si="25">+T21/T20</f>
         <v>1.5027860145328966</v>
       </c>
     </row>
@@ -2409,11 +2442,11 @@
         <v>97</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" ref="H35:I35" si="23">+H6/G6-1</f>
+        <f t="shared" ref="H35:I35" si="26">+H6/G6-1</f>
         <v>5.7391754296977071E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>5.5841371228413594E-2</v>
       </c>
       <c r="L35" s="22">
